--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H2">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I2">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J2">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.0764222826725</v>
+        <v>40.91730166666667</v>
       </c>
       <c r="N2">
-        <v>39.0764222826725</v>
+        <v>122.751905</v>
       </c>
       <c r="O2">
-        <v>0.2882419878105448</v>
+        <v>0.2897771170516138</v>
       </c>
       <c r="P2">
-        <v>0.2882419878105448</v>
+        <v>0.3083463959441224</v>
       </c>
       <c r="Q2">
-        <v>732.0393856129738</v>
+        <v>943.6236815306133</v>
       </c>
       <c r="R2">
-        <v>732.0393856129738</v>
+        <v>8492.613133775518</v>
       </c>
       <c r="S2">
-        <v>0.1966257817351063</v>
+        <v>0.1776375486219696</v>
       </c>
       <c r="T2">
-        <v>0.1966257817351063</v>
+        <v>0.2128444126070583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H3">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I3">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J3">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.1472077435139</v>
+        <v>34.738136</v>
       </c>
       <c r="N3">
-        <v>33.1472077435139</v>
+        <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2445059320232653</v>
+        <v>0.2460161470038337</v>
       </c>
       <c r="P3">
-        <v>0.2445059320232653</v>
+        <v>0.2617811683839066</v>
       </c>
       <c r="Q3">
-        <v>620.9642585960917</v>
+        <v>801.1214436590079</v>
       </c>
       <c r="R3">
-        <v>620.9642585960917</v>
+        <v>7210.092992931071</v>
       </c>
       <c r="S3">
-        <v>0.1667910021996681</v>
+        <v>0.150811443359757</v>
       </c>
       <c r="T3">
-        <v>0.1667910021996681</v>
+        <v>0.180701508917131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H4">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I4">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J4">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8372345363229</v>
+        <v>18.806737</v>
       </c>
       <c r="N4">
-        <v>16.8372345363229</v>
+        <v>56.42021099999999</v>
       </c>
       <c r="O4">
-        <v>0.1241976022491215</v>
+        <v>0.1331896729995656</v>
       </c>
       <c r="P4">
-        <v>0.1241976022491215</v>
+        <v>0.1417246332776418</v>
       </c>
       <c r="Q4">
-        <v>315.4208626427096</v>
+        <v>433.7158532615359</v>
       </c>
       <c r="R4">
-        <v>315.4208626427096</v>
+        <v>3903.442679353823</v>
       </c>
       <c r="S4">
-        <v>0.08472204489482754</v>
+        <v>0.08164718889514816</v>
       </c>
       <c r="T4">
-        <v>0.08472204489482754</v>
+        <v>0.09782924891846924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H5">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I5">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J5">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.1801711993181</v>
+        <v>21.229913</v>
       </c>
       <c r="N5">
-        <v>21.1801711993181</v>
+        <v>63.689739</v>
       </c>
       <c r="O5">
-        <v>0.1562326920437192</v>
+        <v>0.1503506520179033</v>
       </c>
       <c r="P5">
-        <v>0.1562326920437192</v>
+        <v>0.1599853092240957</v>
       </c>
       <c r="Q5">
-        <v>396.7794031850664</v>
+        <v>489.598479069664</v>
       </c>
       <c r="R5">
-        <v>396.7794031850664</v>
+        <v>4406.386311626976</v>
       </c>
       <c r="S5">
-        <v>0.1065749491911899</v>
+        <v>0.09216711633382026</v>
       </c>
       <c r="T5">
-        <v>0.1065749491911899</v>
+        <v>0.1104341727857654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H6">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I6">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J6">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.3270769183994</v>
+        <v>25.510579</v>
       </c>
       <c r="N6">
-        <v>25.3270769183994</v>
+        <v>51.021158</v>
       </c>
       <c r="O6">
-        <v>0.1868217858733491</v>
+        <v>0.1806664109270835</v>
       </c>
       <c r="P6">
-        <v>0.1868217858733491</v>
+        <v>0.1281624931702333</v>
       </c>
       <c r="Q6">
-        <v>474.4655918753065</v>
+        <v>588.318034020512</v>
       </c>
       <c r="R6">
-        <v>474.4655918753065</v>
+        <v>3529.908204123072</v>
       </c>
       <c r="S6">
-        <v>0.1274414597662306</v>
+        <v>0.1107511134141771</v>
       </c>
       <c r="T6">
-        <v>0.1274414597662306</v>
+        <v>0.08846761608336683</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H7">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I7">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J7">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.0764222826725</v>
+        <v>40.91730166666667</v>
       </c>
       <c r="N7">
-        <v>39.0764222826725</v>
+        <v>122.751905</v>
       </c>
       <c r="O7">
-        <v>0.2882419878105448</v>
+        <v>0.2897771170516138</v>
       </c>
       <c r="P7">
-        <v>0.2882419878105448</v>
+        <v>0.3083463959441224</v>
       </c>
       <c r="Q7">
-        <v>67.50696834051142</v>
+        <v>78.80726857402223</v>
       </c>
       <c r="R7">
-        <v>67.50696834051142</v>
+        <v>709.2654171662001</v>
       </c>
       <c r="S7">
-        <v>0.01813237195073248</v>
+        <v>0.01483550092805542</v>
       </c>
       <c r="T7">
-        <v>0.01813237195073248</v>
+        <v>0.01777582220233869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H8">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I8">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J8">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.1472077435139</v>
+        <v>34.738136</v>
       </c>
       <c r="N8">
-        <v>33.1472077435139</v>
+        <v>104.214408</v>
       </c>
       <c r="O8">
-        <v>0.2445059320232653</v>
+        <v>0.2460161470038337</v>
       </c>
       <c r="P8">
-        <v>0.2445059320232653</v>
+        <v>0.2617811683839066</v>
       </c>
       <c r="Q8">
-        <v>57.2638786511934</v>
+        <v>66.90611311114667</v>
       </c>
       <c r="R8">
-        <v>57.2638786511934</v>
+        <v>602.1550180003201</v>
       </c>
       <c r="S8">
-        <v>0.01538107802156979</v>
+        <v>0.01259510348618008</v>
       </c>
       <c r="T8">
-        <v>0.01538107802156979</v>
+        <v>0.0150913893151392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H9">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I9">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J9">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.8372345363229</v>
+        <v>18.806737</v>
       </c>
       <c r="N9">
-        <v>16.8372345363229</v>
+        <v>56.42021099999999</v>
       </c>
       <c r="O9">
-        <v>0.1241976022491215</v>
+        <v>0.1331896729995656</v>
       </c>
       <c r="P9">
-        <v>0.1241976022491215</v>
+        <v>0.1417246332776418</v>
       </c>
       <c r="Q9">
-        <v>29.08737781988109</v>
+        <v>36.22202621849333</v>
       </c>
       <c r="R9">
-        <v>29.08737781988109</v>
+        <v>325.99823596644</v>
       </c>
       <c r="S9">
-        <v>0.007812869792066482</v>
+        <v>0.00681881142823472</v>
       </c>
       <c r="T9">
-        <v>0.007812869792066482</v>
+        <v>0.008170265376773041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H10">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I10">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J10">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.1801711993181</v>
+        <v>21.229913</v>
       </c>
       <c r="N10">
-        <v>21.1801711993181</v>
+        <v>63.689739</v>
       </c>
       <c r="O10">
-        <v>0.1562326920437192</v>
+        <v>0.1503506520179033</v>
       </c>
       <c r="P10">
-        <v>0.1562326920437192</v>
+        <v>0.1599853092240957</v>
       </c>
       <c r="Q10">
-        <v>36.59007306902283</v>
+        <v>40.88909550350667</v>
       </c>
       <c r="R10">
-        <v>36.59007306902283</v>
+        <v>368.0018595315601</v>
       </c>
       <c r="S10">
-        <v>0.009828093764267761</v>
+        <v>0.007697389152877975</v>
       </c>
       <c r="T10">
-        <v>0.009828093764267761</v>
+        <v>0.009222972764270799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H11">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I11">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J11">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.3270769183994</v>
+        <v>25.510579</v>
       </c>
       <c r="N11">
-        <v>25.3270769183994</v>
+        <v>51.021158</v>
       </c>
       <c r="O11">
-        <v>0.1868217858733491</v>
+        <v>0.1806664109270835</v>
       </c>
       <c r="P11">
-        <v>0.1868217858733491</v>
+        <v>0.1281624931702333</v>
       </c>
       <c r="Q11">
-        <v>43.75411257765619</v>
+        <v>49.13371529505334</v>
       </c>
       <c r="R11">
-        <v>43.75411257765619</v>
+        <v>294.80229177032</v>
       </c>
       <c r="S11">
-        <v>0.01175235480329191</v>
+        <v>0.009249442241154576</v>
       </c>
       <c r="T11">
-        <v>0.01175235480329191</v>
+        <v>0.00738842328488043</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H12">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I12">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J12">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.0764222826725</v>
+        <v>40.91730166666667</v>
       </c>
       <c r="N12">
-        <v>39.0764222826725</v>
+        <v>122.751905</v>
       </c>
       <c r="O12">
-        <v>0.2882419878105448</v>
+        <v>0.2897771170516138</v>
       </c>
       <c r="P12">
-        <v>0.2882419878105448</v>
+        <v>0.3083463959441224</v>
       </c>
       <c r="Q12">
-        <v>273.5809124848409</v>
+        <v>516.8863402813066</v>
       </c>
       <c r="R12">
-        <v>273.5809124848409</v>
+        <v>3101.318041687839</v>
       </c>
       <c r="S12">
-        <v>0.07348383412470609</v>
+        <v>0.09730406750158879</v>
       </c>
       <c r="T12">
-        <v>0.07348383412470609</v>
+        <v>0.07772616113472533</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H13">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I13">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J13">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.1472077435139</v>
+        <v>34.738136</v>
       </c>
       <c r="N13">
-        <v>33.1472077435139</v>
+        <v>104.214408</v>
       </c>
       <c r="O13">
-        <v>0.2445059320232653</v>
+        <v>0.2460161470038337</v>
       </c>
       <c r="P13">
-        <v>0.2445059320232653</v>
+        <v>0.2617811683839066</v>
       </c>
       <c r="Q13">
-        <v>232.0694375548372</v>
+        <v>438.8282524471039</v>
       </c>
       <c r="R13">
-        <v>232.0694375548372</v>
+        <v>2632.969514682623</v>
       </c>
       <c r="S13">
-        <v>0.06233385180202739</v>
+        <v>0.08260960015789665</v>
       </c>
       <c r="T13">
-        <v>0.06233385180202739</v>
+        <v>0.06598827015163641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H14">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I14">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J14">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.8372345363229</v>
+        <v>18.806737</v>
       </c>
       <c r="N14">
-        <v>16.8372345363229</v>
+        <v>56.42021099999999</v>
       </c>
       <c r="O14">
-        <v>0.1241976022491215</v>
+        <v>0.1331896729995656</v>
       </c>
       <c r="P14">
-        <v>0.1241976022491215</v>
+        <v>0.1417246332776418</v>
       </c>
       <c r="Q14">
-        <v>117.880443476809</v>
+        <v>237.575428109968</v>
       </c>
       <c r="R14">
-        <v>117.880443476809</v>
+        <v>1425.452568659808</v>
       </c>
       <c r="S14">
-        <v>0.03166268756222751</v>
+        <v>0.04472367267618275</v>
       </c>
       <c r="T14">
-        <v>0.03166268756222751</v>
+        <v>0.03572511898239952</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H15">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I15">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J15">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.1801711993181</v>
+        <v>21.229913</v>
       </c>
       <c r="N15">
-        <v>21.1801711993181</v>
+        <v>63.689739</v>
       </c>
       <c r="O15">
-        <v>0.1562326920437192</v>
+        <v>0.1503506520179033</v>
       </c>
       <c r="P15">
-        <v>0.1562326920437192</v>
+        <v>0.1599853092240957</v>
       </c>
       <c r="Q15">
-        <v>148.2861077039803</v>
+        <v>268.186111695632</v>
       </c>
       <c r="R15">
-        <v>148.2861077039803</v>
+        <v>1609.116670173792</v>
       </c>
       <c r="S15">
-        <v>0.0398296490882615</v>
+        <v>0.05048614653120513</v>
       </c>
       <c r="T15">
-        <v>0.0398296490882615</v>
+        <v>0.04032816367405948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.00117606739432</v>
+        <v>12.632464</v>
       </c>
       <c r="H16">
-        <v>7.00117606739432</v>
+        <v>25.264928</v>
       </c>
       <c r="I16">
-        <v>0.254937993881049</v>
+        <v>0.3357893421386252</v>
       </c>
       <c r="J16">
-        <v>0.254937993881049</v>
+        <v>0.2520741677448068</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.3270769183994</v>
+        <v>25.510579</v>
       </c>
       <c r="N16">
-        <v>25.3270769183994</v>
+        <v>51.021158</v>
       </c>
       <c r="O16">
-        <v>0.1868217858733491</v>
+        <v>0.1806664109270835</v>
       </c>
       <c r="P16">
-        <v>0.1868217858733491</v>
+        <v>0.1281624931702333</v>
       </c>
       <c r="Q16">
-        <v>177.319324778153</v>
+        <v>322.261470836656</v>
       </c>
       <c r="R16">
-        <v>177.319324778153</v>
+        <v>1289.045883346624</v>
       </c>
       <c r="S16">
-        <v>0.04762797130382653</v>
+        <v>0.06066585527175192</v>
       </c>
       <c r="T16">
-        <v>0.04762797130382653</v>
+        <v>0.03230645380198605</v>
       </c>
     </row>
   </sheetData>
